--- a/notebooks/ZIC2/input/ZIC2_HPE5_individuals.xlsx
+++ b/notebooks/ZIC2/input/ZIC2_HPE5_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/ZIC2/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700E50E3-A002-1643-A857-4908ABDA33CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F874B86-C372-A44F-8889-429496694461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="7660" windowWidth="29380" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4280" yWindow="3020" windowWidth="29380" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="97">
   <si>
     <t>PMID</t>
   </si>
@@ -305,6 +305,12 @@
   </si>
   <si>
     <t>HP:0100702</t>
+  </si>
+  <si>
+    <t>patient 13</t>
+  </si>
+  <si>
+    <t>infant girl</t>
   </si>
 </sst>
 </file>
@@ -677,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -952,6 +958,9 @@
       <c r="B3" t="s">
         <v>60</v>
       </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
       <c r="E3" t="s">
         <v>35</v>
       </c>
@@ -1016,6 +1025,9 @@
       </c>
       <c r="B4" t="s">
         <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
       </c>
       <c r="E4" t="s">
         <v>35</v>
